--- a/data/trans_bre/P22_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P22_R2-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.1410650868002371</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.1271607014944356</v>
+        <v>0.1271607014944352</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.4399761425108744</v>
@@ -649,7 +649,7 @@
         <v>0.1671524786215592</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.07612787193515178</v>
+        <v>0.07612787193515155</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.168648957246859</v>
+        <v>-3.003835499497956</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04283871513512807</v>
+        <v>0.1192723015169232</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.8042278355389134</v>
+        <v>-0.8565783652841725</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.207237905213119</v>
+        <v>-1.217791273214893</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.6662975427149985</v>
+        <v>-0.6557510203962515</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.01442505390093878</v>
+        <v>0.02036939691419322</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.6787771859667872</v>
+        <v>-0.6982274802862961</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.4796385380623449</v>
+        <v>-0.5064374985933388</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.3614305126869379</v>
+        <v>-0.1691031079297878</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.972994979164717</v>
+        <v>2.002778321526324</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.186639886869348</v>
+        <v>1.056987762290554</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.313550451614274</v>
+        <v>1.220042436096045</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.1177615747076976</v>
+        <v>-0.0538681225851675</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4.481967977787245</v>
+        <v>5.149657440420087</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3.66872991582897</v>
+        <v>2.569662473219397</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.384683848998266</v>
+        <v>1.213199726074057</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.458012638368531</v>
+        <v>-2.498468142933396</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.155044644166018</v>
+        <v>-2.206483283000626</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.8040047418623609</v>
+        <v>-0.7531371504573152</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.202007741412575</v>
+        <v>-0.995906261486403</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3454480982568006</v>
+        <v>-0.3673495877454979</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3828335613303299</v>
+        <v>-0.3873249301234737</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.250319707981757</v>
+        <v>-0.2380155718217548</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.133135159463325</v>
+        <v>-0.1196222132003956</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8622735765523901</v>
+        <v>0.9273424006513136</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5144351504136089</v>
+        <v>0.645325574979814</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.395362322512792</v>
+        <v>1.383135137363597</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.211618024357253</v>
+        <v>2.291590230971175</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.17577561659405</v>
+        <v>0.171663466908605</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1200033941332977</v>
+        <v>0.1577690786143539</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6277894525867725</v>
+        <v>0.6310424133951348</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3424049911444726</v>
+        <v>0.3396176003364875</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>3.888423590088558</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.486612371756634</v>
+        <v>3.486612371756637</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.009010224207683961</v>
@@ -849,7 +849,7 @@
         <v>0.3713983086881791</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.152594855373977</v>
+        <v>0.1525948553739771</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.513865049945315</v>
+        <v>-4.386255225308834</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.547659430860954</v>
+        <v>-3.498221955321607</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.6991871843526206</v>
+        <v>0.1210008035686659</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.058202435300564</v>
+        <v>-0.6434607941621253</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2797980808310115</v>
+        <v>-0.2808997346376631</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.276828617022279</v>
+        <v>-0.2847157514283505</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.06536866805619472</v>
+        <v>0.004197549327989974</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.03999001791666078</v>
+        <v>-0.02582965520466781</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.18890750971766</v>
+        <v>3.945945275836972</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.023638545726913</v>
+        <v>5.398749957279072</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.614084304292024</v>
+        <v>8.105775594556512</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.739088807669353</v>
+        <v>7.960679290179379</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3640778165415334</v>
+        <v>0.3238705630521563</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6146575668338553</v>
+        <v>0.6547782611600855</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8512793534807668</v>
+        <v>0.9570462853123717</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3835904830798873</v>
+        <v>0.3767740852883991</v>
       </c>
     </row>
     <row r="13">
@@ -949,7 +949,7 @@
         <v>0.1874876138658535</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.06536972170620184</v>
+        <v>0.06536972170620182</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.621367811779265</v>
+        <v>-2.479902398768143</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.379095817233241</v>
+        <v>-1.412942814268349</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.3797923135648945</v>
+        <v>-0.3557277078796629</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.6880726227554668</v>
+        <v>-0.7977181081127364</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3567967797539096</v>
+        <v>-0.3500654999998164</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2729268481543704</v>
+        <v>-0.2754977466045522</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.09596223352798292</v>
+        <v>-0.08411099882143007</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.06533120861704911</v>
+        <v>-0.07438670396170831</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-0.2112469673070985</v>
+        <v>-0.164367729282126</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6240763954814145</v>
+        <v>0.6478616671320363</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.611202070249834</v>
+        <v>1.521812415478279</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.998327337896167</v>
+        <v>1.988982354042183</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.03444307595119095</v>
+        <v>-0.02472541117129945</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.158975738117455</v>
+        <v>0.1651924226628974</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5150188216650117</v>
+        <v>0.4914700544102467</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2239959746168709</v>
+        <v>0.2233216752563851</v>
       </c>
     </row>
     <row r="16">
